--- a/app/src/main/assets/Game Programming.xlsx
+++ b/app/src/main/assets/Game Programming.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\FILES\Others\AcademicAlly Assessments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\AndroidStudioProjects\AcademicAlly\app\src\main\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BE4827-CDBE-4395-A406-2F8C862AE21F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34E71FB-1651-41AB-B105-95E8F24B72CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Multiple Choice" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="216">
   <si>
     <t>This player mode allow players to share the game on a local area network without sharing the screen or input device.</t>
   </si>
@@ -672,6 +672,9 @@
   </si>
   <si>
     <t>Levels</t>
+  </si>
+  <si>
+    <t>default</t>
   </si>
 </sst>
 </file>
@@ -992,10 +995,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1008,7 +1011,7 @@
     <col min="6" max="6" width="128" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -1030,8 +1033,11 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1053,8 +1059,11 @@
       <c r="G2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1076,8 +1085,11 @@
       <c r="G3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -1099,8 +1111,11 @@
       <c r="G4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -1122,8 +1137,11 @@
       <c r="G5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -1145,8 +1163,11 @@
       <c r="G6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -1168,8 +1189,11 @@
       <c r="G7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -1191,8 +1215,11 @@
       <c r="G8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>89</v>
       </c>
@@ -1214,8 +1241,11 @@
       <c r="G9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>89</v>
       </c>
@@ -1237,8 +1267,11 @@
       <c r="G10" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>89</v>
       </c>
@@ -1260,8 +1293,11 @@
       <c r="G11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>89</v>
       </c>
@@ -1283,8 +1319,11 @@
       <c r="G12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>89</v>
       </c>
@@ -1306,8 +1345,11 @@
       <c r="G13" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>142</v>
       </c>
@@ -1329,8 +1371,11 @@
       <c r="G14" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>142</v>
       </c>
@@ -1352,8 +1397,11 @@
       <c r="G15" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>142</v>
       </c>
@@ -1375,8 +1423,11 @@
       <c r="G16" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>142</v>
       </c>
@@ -1398,8 +1449,11 @@
       <c r="G17" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>142</v>
       </c>
@@ -1421,8 +1475,11 @@
       <c r="G18" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>142</v>
       </c>
@@ -1444,8 +1501,11 @@
       <c r="G19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>181</v>
       </c>
@@ -1467,8 +1527,11 @@
       <c r="G20" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>181</v>
       </c>
@@ -1490,8 +1553,11 @@
       <c r="G21" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>181</v>
       </c>
@@ -1513,8 +1579,11 @@
       <c r="G22" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>181</v>
       </c>
@@ -1536,8 +1605,11 @@
       <c r="G23" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>181</v>
       </c>
@@ -1559,8 +1631,11 @@
       <c r="G24" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>181</v>
       </c>
@@ -1582,8 +1657,11 @@
       <c r="G25" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>214</v>
       </c>
@@ -1605,8 +1683,11 @@
       <c r="G26" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H26" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>214</v>
       </c>
@@ -1628,8 +1709,11 @@
       <c r="G27" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>214</v>
       </c>
@@ -1651,8 +1735,11 @@
       <c r="G28" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>214</v>
       </c>
@@ -1674,8 +1761,11 @@
       <c r="G29" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H29" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>214</v>
       </c>
@@ -1696,6 +1786,9 @@
       </c>
       <c r="G30" t="s">
         <v>34</v>
+      </c>
+      <c r="H30" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -1705,10 +1798,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E4FEF6-B863-4F6C-8A08-CF99E3349EFE}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1718,7 +1811,7 @@
     <col min="3" max="3" width="48.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -1728,8 +1821,11 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1739,8 +1835,11 @@
       <c r="C2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1750,8 +1849,11 @@
       <c r="C3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -1761,8 +1863,11 @@
       <c r="C4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -1772,8 +1877,11 @@
       <c r="C5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -1783,8 +1891,11 @@
       <c r="C6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>89</v>
       </c>
@@ -1794,8 +1905,11 @@
       <c r="C7" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>89</v>
       </c>
@@ -1805,8 +1919,11 @@
       <c r="C8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>89</v>
       </c>
@@ -1816,8 +1933,11 @@
       <c r="C9" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>89</v>
       </c>
@@ -1827,8 +1947,11 @@
       <c r="C10" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>89</v>
       </c>
@@ -1838,8 +1961,11 @@
       <c r="C11" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>142</v>
       </c>
@@ -1849,8 +1975,11 @@
       <c r="C12" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>142</v>
       </c>
@@ -1860,8 +1989,11 @@
       <c r="C13" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>142</v>
       </c>
@@ -1871,8 +2003,11 @@
       <c r="C14" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>142</v>
       </c>
@@ -1882,8 +2017,11 @@
       <c r="C15" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>142</v>
       </c>
@@ -1893,8 +2031,11 @@
       <c r="C16" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>142</v>
       </c>
@@ -1904,8 +2045,11 @@
       <c r="C17" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>181</v>
       </c>
@@ -1915,8 +2059,11 @@
       <c r="C18" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>181</v>
       </c>
@@ -1926,8 +2073,11 @@
       <c r="C19" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>181</v>
       </c>
@@ -1937,8 +2087,11 @@
       <c r="C20" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>214</v>
       </c>
@@ -1948,8 +2101,11 @@
       <c r="C21" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>214</v>
       </c>
@@ -1958,6 +2114,9 @@
       </c>
       <c r="C22" t="s">
         <v>213</v>
+      </c>
+      <c r="D22" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -1967,10 +2126,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21268EFB-5EB3-4AB6-A19C-09A3C9E8A98E}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1979,7 +2138,7 @@
     <col min="2" max="2" width="125.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -1989,8 +2148,11 @@
       <c r="C1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -2000,8 +2162,11 @@
       <c r="C2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -2011,8 +2176,11 @@
       <c r="C3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -2022,8 +2190,11 @@
       <c r="C4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -2033,8 +2204,11 @@
       <c r="C5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -2044,8 +2218,11 @@
       <c r="C6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -2055,8 +2232,11 @@
       <c r="C7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>89</v>
       </c>
@@ -2066,8 +2246,11 @@
       <c r="C8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>89</v>
       </c>
@@ -2077,8 +2260,11 @@
       <c r="C9" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>89</v>
       </c>
@@ -2088,8 +2274,11 @@
       <c r="C10" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>89</v>
       </c>
@@ -2099,8 +2288,11 @@
       <c r="C11" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>89</v>
       </c>
@@ -2110,8 +2302,11 @@
       <c r="C12" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>142</v>
       </c>
@@ -2121,8 +2316,11 @@
       <c r="C13" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>142</v>
       </c>
@@ -2132,8 +2330,11 @@
       <c r="C14" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>142</v>
       </c>
@@ -2143,8 +2344,11 @@
       <c r="C15" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>142</v>
       </c>
@@ -2154,8 +2358,11 @@
       <c r="C16" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>142</v>
       </c>
@@ -2165,8 +2372,11 @@
       <c r="C17" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>142</v>
       </c>
@@ -2176,8 +2386,11 @@
       <c r="C18" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>142</v>
       </c>
@@ -2187,8 +2400,11 @@
       <c r="C19" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>142</v>
       </c>
@@ -2198,8 +2414,11 @@
       <c r="C20" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>142</v>
       </c>
@@ -2209,8 +2428,11 @@
       <c r="C21" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>142</v>
       </c>
@@ -2220,8 +2442,11 @@
       <c r="C22" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>181</v>
       </c>
@@ -2231,8 +2456,11 @@
       <c r="C23" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>181</v>
       </c>
@@ -2242,8 +2470,11 @@
       <c r="C24" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>181</v>
       </c>
@@ -2253,8 +2484,11 @@
       <c r="C25" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>181</v>
       </c>
@@ -2264,8 +2498,11 @@
       <c r="C26" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>181</v>
       </c>
@@ -2275,8 +2512,11 @@
       <c r="C27" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>214</v>
       </c>
@@ -2286,8 +2526,11 @@
       <c r="C28" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>214</v>
       </c>
@@ -2297,8 +2540,11 @@
       <c r="C29" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>214</v>
       </c>
@@ -2308,8 +2554,11 @@
       <c r="C30" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>214</v>
       </c>
@@ -2319,8 +2568,11 @@
       <c r="C31" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>214</v>
       </c>
@@ -2329,6 +2581,9 @@
       </c>
       <c r="C32" t="b">
         <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
